--- a/CancerSummary/SummaryReports_v4.xlsx
+++ b/CancerSummary/SummaryReports_v4.xlsx
@@ -684,7 +684,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -752,37 +752,37 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>34436</v>
+        <v>34375</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
       <c r="E2">
-        <v>10378</v>
+        <v>10360</v>
       </c>
       <c r="F2">
         <v>100</v>
       </c>
       <c r="G2">
-        <v>5307</v>
+        <v>5293</v>
       </c>
       <c r="H2">
         <v>100</v>
       </c>
       <c r="I2">
-        <v>6528</v>
+        <v>6513</v>
       </c>
       <c r="J2">
         <v>100</v>
       </c>
       <c r="K2">
-        <v>7290</v>
+        <v>7282</v>
       </c>
       <c r="L2">
         <v>100</v>
       </c>
       <c r="M2">
-        <v>4933</v>
+        <v>4927</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -790,37 +790,37 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>95.72</v>
+        <v>95.89</v>
       </c>
       <c r="C3">
-        <v>32962</v>
+        <v>32963</v>
       </c>
       <c r="D3">
-        <v>95.23</v>
+        <v>95.4</v>
       </c>
       <c r="E3">
         <v>9883</v>
       </c>
       <c r="F3">
-        <v>96.29</v>
+        <v>96.56</v>
       </c>
       <c r="G3">
-        <v>5110</v>
+        <v>5111</v>
       </c>
       <c r="H3">
-        <v>97.07</v>
+        <v>97.3</v>
       </c>
       <c r="I3">
         <v>6337</v>
       </c>
       <c r="J3">
-        <v>95.5</v>
+        <v>95.61</v>
       </c>
       <c r="K3">
         <v>6962</v>
       </c>
       <c r="L3">
-        <v>94.67</v>
+        <v>94.78</v>
       </c>
       <c r="M3">
         <v>4670</v>
@@ -834,37 +834,37 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>34436</v>
+        <v>34375</v>
       </c>
       <c r="D4">
         <v>100</v>
       </c>
       <c r="E4">
-        <v>10378</v>
+        <v>10360</v>
       </c>
       <c r="F4">
         <v>100</v>
       </c>
       <c r="G4">
-        <v>5307</v>
+        <v>5293</v>
       </c>
       <c r="H4">
         <v>100</v>
       </c>
       <c r="I4">
-        <v>6528</v>
+        <v>6513</v>
       </c>
       <c r="J4">
         <v>100</v>
       </c>
       <c r="K4">
-        <v>7290</v>
+        <v>7282</v>
       </c>
       <c r="L4">
         <v>100</v>
       </c>
       <c r="M4">
-        <v>4933</v>
+        <v>4927</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -875,37 +875,37 @@
         <v>100</v>
       </c>
       <c r="C5">
-        <v>34436</v>
+        <v>34375</v>
       </c>
       <c r="D5">
         <v>100</v>
       </c>
       <c r="E5">
-        <v>10378</v>
+        <v>10360</v>
       </c>
       <c r="F5">
         <v>100</v>
       </c>
       <c r="G5">
-        <v>5307</v>
+        <v>5293</v>
       </c>
       <c r="H5">
         <v>100</v>
       </c>
       <c r="I5">
-        <v>6528</v>
+        <v>6513</v>
       </c>
       <c r="J5">
         <v>100</v>
       </c>
       <c r="K5">
-        <v>7290</v>
+        <v>7282</v>
       </c>
       <c r="L5">
         <v>100</v>
       </c>
       <c r="M5">
-        <v>4933</v>
+        <v>4927</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -916,37 +916,37 @@
         <v>100</v>
       </c>
       <c r="C6">
-        <v>34436</v>
+        <v>34375</v>
       </c>
       <c r="D6">
         <v>100</v>
       </c>
       <c r="E6">
-        <v>10378</v>
+        <v>10360</v>
       </c>
       <c r="F6">
         <v>100</v>
       </c>
       <c r="G6">
-        <v>5307</v>
+        <v>5293</v>
       </c>
       <c r="H6">
         <v>100</v>
       </c>
       <c r="I6">
-        <v>6528</v>
+        <v>6513</v>
       </c>
       <c r="J6">
         <v>100</v>
       </c>
       <c r="K6">
-        <v>7290</v>
+        <v>7282</v>
       </c>
       <c r="L6">
         <v>100</v>
       </c>
       <c r="M6">
-        <v>4933</v>
+        <v>4927</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -954,37 +954,37 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>99</v>
+        <v>99.18</v>
       </c>
       <c r="C7">
-        <v>34093</v>
+        <v>34092</v>
       </c>
       <c r="D7">
-        <v>98.45</v>
+        <v>98.61</v>
       </c>
       <c r="E7">
-        <v>10217</v>
+        <v>10216</v>
       </c>
       <c r="F7">
-        <v>98.79</v>
+        <v>99.06</v>
       </c>
       <c r="G7">
         <v>5243</v>
       </c>
       <c r="H7">
-        <v>99.13</v>
+        <v>99.36</v>
       </c>
       <c r="I7">
         <v>6471</v>
       </c>
       <c r="J7">
-        <v>99.55</v>
+        <v>99.66</v>
       </c>
       <c r="K7">
         <v>7257</v>
       </c>
       <c r="L7">
-        <v>99.43</v>
+        <v>99.55</v>
       </c>
       <c r="M7">
         <v>4905</v>
@@ -998,37 +998,37 @@
         <v>100</v>
       </c>
       <c r="C8">
-        <v>34436</v>
+        <v>34375</v>
       </c>
       <c r="D8">
         <v>100</v>
       </c>
       <c r="E8">
-        <v>10378</v>
+        <v>10360</v>
       </c>
       <c r="F8">
         <v>100</v>
       </c>
       <c r="G8">
-        <v>5307</v>
+        <v>5293</v>
       </c>
       <c r="H8">
         <v>100</v>
       </c>
       <c r="I8">
-        <v>6528</v>
+        <v>6513</v>
       </c>
       <c r="J8">
         <v>100</v>
       </c>
       <c r="K8">
-        <v>7290</v>
+        <v>7282</v>
       </c>
       <c r="L8">
         <v>100</v>
       </c>
       <c r="M8">
-        <v>4933</v>
+        <v>4927</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -1036,37 +1036,37 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>82.59</v>
+        <v>82.68</v>
       </c>
       <c r="C9">
-        <v>28440</v>
+        <v>28422</v>
       </c>
       <c r="D9">
-        <v>65.84</v>
+        <v>65.89</v>
       </c>
       <c r="E9">
-        <v>6833</v>
+        <v>6826</v>
       </c>
       <c r="F9">
-        <v>88.2</v>
+        <v>88.32</v>
       </c>
       <c r="G9">
-        <v>4681</v>
+        <v>4675</v>
       </c>
       <c r="H9">
-        <v>89.77</v>
+        <v>89.93</v>
       </c>
       <c r="I9">
-        <v>5860</v>
+        <v>5857</v>
       </c>
       <c r="J9">
-        <v>92.7</v>
+        <v>92.78</v>
       </c>
       <c r="K9">
-        <v>6758</v>
+        <v>6756</v>
       </c>
       <c r="L9">
-        <v>87.33</v>
+        <v>87.44</v>
       </c>
       <c r="M9">
         <v>4308</v>
@@ -1077,37 +1077,37 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>29.34</v>
+        <v>29.39</v>
       </c>
       <c r="C10">
         <v>10102</v>
       </c>
       <c r="D10">
-        <v>28.79</v>
+        <v>28.84</v>
       </c>
       <c r="E10">
         <v>2988</v>
       </c>
       <c r="F10">
-        <v>36.61</v>
+        <v>36.71</v>
       </c>
       <c r="G10">
         <v>1943</v>
       </c>
       <c r="H10">
-        <v>33.01</v>
+        <v>33.090000000000003</v>
       </c>
       <c r="I10">
         <v>2155</v>
       </c>
       <c r="J10">
-        <v>27.02</v>
+        <v>27.05</v>
       </c>
       <c r="K10">
         <v>1970</v>
       </c>
       <c r="L10">
-        <v>21.2</v>
+        <v>21.23</v>
       </c>
       <c r="M10">
         <v>1046</v>
@@ -1118,37 +1118,37 @@
         <v>22</v>
       </c>
       <c r="B11">
-        <v>49.07</v>
+        <v>49.13</v>
       </c>
       <c r="C11">
-        <v>16899</v>
+        <v>16888</v>
       </c>
       <c r="D11">
-        <v>48.78</v>
+        <v>48.84</v>
       </c>
       <c r="E11">
-        <v>5062</v>
+        <v>5060</v>
       </c>
       <c r="F11">
-        <v>47.69</v>
+        <v>47.76</v>
       </c>
       <c r="G11">
-        <v>2531</v>
+        <v>2528</v>
       </c>
       <c r="H11">
-        <v>52.47</v>
+        <v>52.51</v>
       </c>
       <c r="I11">
-        <v>3425</v>
+        <v>3420</v>
       </c>
       <c r="J11">
-        <v>53.17</v>
+        <v>53.21</v>
       </c>
       <c r="K11">
-        <v>3876</v>
+        <v>3875</v>
       </c>
       <c r="L11">
-        <v>40.64</v>
+        <v>40.69</v>
       </c>
       <c r="M11">
         <v>2005</v>
@@ -1164,7 +1164,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1808,7 +1808,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2188,10 +2188,10 @@
         <v>62</v>
       </c>
       <c r="B27">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="C27">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="D27">
         <v>49</v>
@@ -2305,7 +2305,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2527,7 +2527,7 @@
         <v>62</v>
       </c>
       <c r="B27">
-        <v>860</v>
+        <v>799</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -2596,7 +2596,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="A13:B13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2634,7 +2634,7 @@
         <v>74</v>
       </c>
       <c r="B4">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -2714,7 +2714,7 @@
         <v>84</v>
       </c>
       <c r="B14">
-        <v>209</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -2782,11 +2782,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -3521,13 +3524,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A79D0F1D-EB77-431A-B9AB-3E94B69AB210}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F666636D-6B21-4D36-877E-97C1A3552452}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBC132EC-615B-4FC6-A3B1-C234330A7DCA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF3B5702-2720-439C-83B1-CFCB5F40B407}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE084590-4438-4273-BCA0-00BE2F6D3540}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDCE68C4-1C7A-4425-8C21-765E49ECD6DE}"/>
 </file>